--- a/service-system/target/classes/static/路基沉降.xlsx
+++ b/service-system/target/classes/static/路基沉降.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\jjgys\jjgys-parent\service-system\src\main\resources\static\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A24724E-C8C5-4EC7-8D06-07A00D76218D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C277DE5-7CC2-463A-8AE7-B87176B2378C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="19">
   <si>
     <t>路基填筑沉降量鉴定表</t>
   </si>
@@ -220,10 +220,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -531,10 +531,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G33"/>
+  <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:C3"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A19" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -624,10 +624,10 @@
       <c r="D7" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="E7" s="15" t="s">
+      <c r="E7" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="F7" s="15"/>
+      <c r="F7" s="14"/>
       <c r="G7" s="10" t="s">
         <v>8</v>
       </c>
@@ -867,20 +867,9 @@
       <c r="F32" s="10"/>
       <c r="G32" s="3"/>
     </row>
-    <row r="33" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E33" s="14"/>
-      <c r="F33" s="14"/>
-    </row>
   </sheetData>
-  <mergeCells count="14">
+  <mergeCells count="13">
     <mergeCell ref="E32:F32"/>
-    <mergeCell ref="E33:F33"/>
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="D7:D8"/>
     <mergeCell ref="G7:G8"/>
@@ -895,10 +884,10 @@
     <mergeCell ref="B3:C3"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
-  <pageMargins left="0.90551181102362199" right="0.70866141732283505" top="0.74803149606299202" bottom="0.74803149606299202" header="0.511811023622047" footer="0.31496062992126"/>
+  <pageMargins left="0.9055118110236221" right="0.70866141732283472" top="0.74803149606299213" bottom="1.2598425196850394" header="0.51181102362204722" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="97" orientation="portrait" horizontalDpi="200" verticalDpi="300" r:id="rId1"/>
   <headerFooter>
-    <oddHeader>&amp;C陕西交建公路工程试验检测有限公司&amp;R第&amp;P页共&amp;N页</oddHeader>
+    <oddHeader>&amp;C陕西交控工程技术有限公司&amp;R第&amp;P页共&amp;N页</oddHeader>
   </headerFooter>
 </worksheet>
 </file>
@@ -941,8 +930,8 @@
       <c r="D2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="2">
